--- a/trunk/error_computation/plasticity_5/plasticity_convergencestudy.xlsx
+++ b/trunk/error_computation/plasticity_5/plasticity_convergencestudy.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21180" windowHeight="10110"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21180" windowHeight="10110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>Convergence study for a plastic interface in total slip:</t>
   </si>
@@ -120,9 +119,6 @@
     <t>penalty method</t>
   </si>
   <si>
-    <t>penalty parameter</t>
-  </si>
-  <si>
     <t>41x51</t>
   </si>
   <si>
@@ -157,6 +153,57 @@
   </si>
   <si>
     <t>111x139</t>
+  </si>
+  <si>
+    <t>Comparison between Penalty and Nitsche with respect to the reference solution</t>
+  </si>
+  <si>
+    <t>Mesh:</t>
+  </si>
+  <si>
+    <t>21x27 with reference mesh 21x21</t>
+  </si>
+  <si>
+    <t>x-displacement of left bottom node:</t>
+  </si>
+  <si>
+    <t>Reference mesh</t>
+  </si>
+  <si>
+    <t>Nitsches method</t>
+  </si>
+  <si>
+    <t>parameter normal</t>
+  </si>
+  <si>
+    <t>parameter tangential</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Difference to reference solution</t>
+  </si>
+  <si>
+    <t>tang. penalty parameter</t>
+  </si>
+  <si>
+    <t>normal penalty par.</t>
+  </si>
+  <si>
+    <t>L2-error displacement field</t>
+  </si>
+  <si>
+    <t>Penalty method</t>
+  </si>
+  <si>
+    <t>displacement error</t>
+  </si>
+  <si>
+    <t>Parameter study for penalty parameter</t>
   </si>
 </sst>
 </file>
@@ -244,7 +291,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -414,11 +460,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74688384"/>
-        <c:axId val="74689920"/>
+        <c:axId val="79153792"/>
+        <c:axId val="82649472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74688384"/>
+        <c:axId val="79153792"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -426,12 +472,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74689920"/>
+        <c:crossAx val="82649472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74689920"/>
+        <c:axId val="82649472"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -441,14 +487,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74688384"/>
+        <c:crossAx val="79153792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -538,11 +583,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="74710400"/>
-        <c:axId val="75375744"/>
+        <c:axId val="82669952"/>
+        <c:axId val="82671488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74710400"/>
+        <c:axId val="82669952"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -550,12 +595,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75375744"/>
+        <c:crossAx val="82671488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75375744"/>
+        <c:axId val="82671488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -564,14 +609,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74710400"/>
+        <c:crossAx val="82669952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -729,11 +773,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="75396992"/>
-        <c:axId val="75398528"/>
+        <c:axId val="82696832"/>
+        <c:axId val="82702720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75396992"/>
+        <c:axId val="82696832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -741,12 +785,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75398528"/>
+        <c:crossAx val="82702720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75398528"/>
+        <c:axId val="82702720"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -755,14 +799,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75396992"/>
+        <c:crossAx val="82696832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -929,11 +972,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="75444608"/>
-        <c:axId val="75446144"/>
+        <c:axId val="82986112"/>
+        <c:axId val="82987648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75444608"/>
+        <c:axId val="82986112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -941,12 +984,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75446144"/>
+        <c:crossAx val="82987648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75446144"/>
+        <c:axId val="82987648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -955,14 +998,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75444608"/>
+        <c:crossAx val="82986112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -994,7 +1036,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1008,7 +1049,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$83:$C$89</c:f>
+              <c:f>Tabelle1!$D$83:$D$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1035,7 +1076,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$83:$H$89</c:f>
+              <c:f>Tabelle1!$I$83:$I$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1151,11 +1192,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="75483776"/>
-        <c:axId val="75485568"/>
+        <c:axId val="83017088"/>
+        <c:axId val="83035648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75483776"/>
+        <c:axId val="83017088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1177,16 +1218,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75485568"/>
+        <c:crossAx val="83035648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75485568"/>
+        <c:axId val="83035648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1209,24 +1249,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75483776"/>
+        <c:crossAx val="83017088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1674,13 +1712,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -2088,7 +2127,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -2119,7 +2158,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -2370,12 +2409,12 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2384,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2407,219 +2446,241 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82" t="s">
         <v>7</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>30</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>31</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>32</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>29</v>
       </c>
-      <c r="H82" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="I82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" s="3">
-        <v>3029400000</v>
-      </c>
-      <c r="C83">
+        <v>44</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83">
         <v>0.57759000000000005</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>84</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>108</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>10</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>100</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>9.8438999999999999E-2</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>0.11448999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="3">
-        <v>3029400000</v>
-      </c>
-      <c r="C84">
+        <v>43</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84">
         <v>0.25484000000000001</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>360</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>408</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>22</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>100</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>2.4438999999999999E-2</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>2.8742E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>28</v>
       </c>
       <c r="B85" s="3">
-        <v>3029400000</v>
-      </c>
-      <c r="C85">
+        <v>50000</v>
+      </c>
+      <c r="C85" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="D85">
         <v>0.13283</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>1232</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>1320</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>42</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>100</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>8.8766999999999995E-3</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>9.0445999999999999E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="3">
+        <f>D85^2/D86^2*B85</f>
+        <v>184465.51059535259</v>
+      </c>
+      <c r="C86" s="3">
+        <f>D85^2/D86^2*C85</f>
+        <v>7378620.4238141039</v>
+      </c>
+      <c r="D86">
+        <v>6.9154999999999994E-2</v>
+      </c>
+      <c r="E86">
+        <v>4368</v>
+      </c>
+      <c r="F86">
+        <v>4536</v>
+      </c>
+      <c r="G86">
+        <v>82</v>
+      </c>
+      <c r="H86">
+        <v>100</v>
+      </c>
+      <c r="I86">
+        <v>2.5926E-3</v>
+      </c>
+      <c r="J86">
+        <v>2.2149000000000001E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
         <v>35</v>
       </c>
-      <c r="B86" s="3">
-        <v>3029400000</v>
-      </c>
-      <c r="C86">
-        <v>6.9154999999999994E-2</v>
-      </c>
-      <c r="D86">
-        <v>4368</v>
-      </c>
-      <c r="E86">
-        <v>4536</v>
-      </c>
-      <c r="F86">
-        <v>82</v>
-      </c>
-      <c r="G86">
+      <c r="B87" s="3">
+        <f>D86^2/D87^2*B86</f>
+        <v>721721.7818559052</v>
+      </c>
+      <c r="C87" s="3">
+        <f>D86^2/D87^2*C86</f>
+        <v>28868871.27423621</v>
+      </c>
+      <c r="D87">
+        <v>3.4962E-2</v>
+      </c>
+      <c r="E87">
+        <v>16728</v>
+      </c>
+      <c r="F87">
+        <v>17056</v>
+      </c>
+      <c r="G87">
+        <v>162</v>
+      </c>
+      <c r="H87">
         <v>100</v>
       </c>
-      <c r="H86">
-        <v>2.5926E-3</v>
-      </c>
-      <c r="I86">
-        <v>2.2149000000000001E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" t="s">
+      <c r="I87">
+        <v>7.1562000000000004E-4</v>
+      </c>
+      <c r="J87">
+        <v>4.6189000000000001E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" s="3" t="e">
+        <f>D87^2/D88^2*B87</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C88" s="3" t="e">
+        <f>D87^2/D88^2*C87</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
         <v>36</v>
       </c>
-      <c r="B87" s="3">
-        <v>3029400000</v>
-      </c>
-      <c r="C87">
-        <v>3.4962E-2</v>
-      </c>
-      <c r="D87">
-        <v>16728</v>
-      </c>
-      <c r="E87">
-        <v>17056</v>
-      </c>
-      <c r="F87">
-        <v>162</v>
-      </c>
-      <c r="G87">
+      <c r="B89" s="3" t="e">
+        <f>D88^2/D89^2*B88</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C89" s="3" t="e">
+        <f>D88^2/D89^2*C88</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D89">
+        <v>2.0074000000000002E-2</v>
+      </c>
+      <c r="E89">
+        <v>50268</v>
+      </c>
+      <c r="F89">
+        <v>50836</v>
+      </c>
+      <c r="G89">
+        <v>282</v>
+      </c>
+      <c r="H89">
         <v>100</v>
       </c>
-      <c r="H87">
-        <v>7.1562000000000004E-4</v>
-      </c>
-      <c r="I87">
-        <v>4.6189000000000001E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="3">
-        <v>3029400000</v>
-      </c>
-      <c r="G88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" t="s">
-        <v>37</v>
-      </c>
-      <c r="B89" s="3">
-        <v>3029400000</v>
-      </c>
-      <c r="C89">
-        <v>2.0074000000000002E-2</v>
-      </c>
-      <c r="D89">
-        <v>50268</v>
-      </c>
-      <c r="E89">
-        <v>50836</v>
-      </c>
-      <c r="F89">
-        <v>282</v>
-      </c>
-      <c r="G89">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4.6143000000000002E-5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4.6143000000000002E-5</v>
       </c>
     </row>
@@ -2632,24 +2693,145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>3.4185993690769999E-3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>3.4496132277000002E-3</v>
+      </c>
+      <c r="C7">
+        <v>10000</v>
+      </c>
+      <c r="D7">
+        <v>10000</v>
+      </c>
+      <c r="F7">
+        <f>B7-B6</f>
+        <v>3.1013858623000264E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>3.436810649768E-3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8">
+        <f>B8-B6</f>
+        <v>1.8211280691000139E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/error_computation/plasticity_5/plasticity_convergencestudy.xlsx
+++ b/trunk/error_computation/plasticity_5/plasticity_convergencestudy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21180" windowHeight="10110" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="21180" windowHeight="10110"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>Convergence study for a plastic interface in total slip:</t>
   </si>
@@ -86,9 +86,6 @@
     <t>---</t>
   </si>
   <si>
-    <t>The 160x160-mesh is the finest mesh which can be handled. A finer mesh requires more memory.</t>
-  </si>
-  <si>
     <t>So, this mesh is used as the reference solution to compare with the corresponding plasticity-example.</t>
   </si>
   <si>
@@ -146,15 +143,9 @@
     <t>Rate 2</t>
   </si>
   <si>
-    <t>11x14</t>
-  </si>
-  <si>
     <t>5x6</t>
   </si>
   <si>
-    <t>111x139</t>
-  </si>
-  <si>
     <t>Comparison between Penalty and Nitsche with respect to the reference solution</t>
   </si>
   <si>
@@ -197,21 +188,52 @@
     <t>L2-error displacement field</t>
   </si>
   <si>
-    <t>Penalty method</t>
-  </si>
-  <si>
     <t>displacement error</t>
   </si>
   <si>
     <t>Parameter study for penalty parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The parameter study is done on the coarse mesh 21x27. The reference solution is computed with an 161x161 mesh. </t>
+  </si>
+  <si>
+    <t>L2-error in displacement field</t>
+  </si>
+  <si>
+    <t>penalty parameter normal</t>
+  </si>
+  <si>
+    <t>penalty parameter tangential</t>
+  </si>
+  <si>
+    <t>oszillations</t>
+  </si>
+  <si>
+    <t>161x161</t>
+  </si>
+  <si>
+    <t>1/h</t>
+  </si>
+  <si>
+    <t>The 161x161-mesh is the finest mesh which can be handled. A finer mesh requires more memory.</t>
+  </si>
+  <si>
+    <t>Nitsche</t>
+  </si>
+  <si>
+    <t>mesh size</t>
+  </si>
+  <si>
+    <t>101_126</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -250,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -258,6 +280,7 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -291,6 +314,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -301,10 +325,10 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$8:$C$17</c:f>
+              <c:f>Tabelle1!$D$8:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -324,15 +348,6 @@
                   <c:v>13448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40328</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46208</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49298</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>51842</c:v>
                 </c:pt>
               </c:numCache>
@@ -340,10 +355,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$G$8:$G$17</c:f>
+              <c:f>Tabelle1!$H$8:$H$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -363,16 +378,7 @@
                   <c:v>3.45706513209E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4609893861069999E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.4613165556600001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.461463142153E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.4615732841869998E-3</c:v>
+                  <c:v>3.4615998910010001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -383,10 +389,10 @@
           <c:order val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$8:$C$17</c:f>
+              <c:f>Tabelle1!$D$8:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -406,15 +412,6 @@
                   <c:v>13448</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40328</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46208</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49298</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>51842</c:v>
                 </c:pt>
               </c:numCache>
@@ -422,10 +419,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$H$8:$H$17</c:f>
+              <c:f>Tabelle1!$I$8:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2E-3</c:v>
                 </c:pt>
@@ -445,26 +442,17 @@
                   <c:v>3.4479155957420002E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4557708194580001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.4564476636830001E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.4567521371659999E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.4569814394040002E-3</c:v>
+                  <c:v>3.4570369149419999E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79153792"/>
-        <c:axId val="82649472"/>
+        <c:axId val="114135040"/>
+        <c:axId val="116515584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79153792"/>
+        <c:axId val="114135040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -472,28 +460,29 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82649472"/>
+        <c:crossAx val="116515584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82649472"/>
+        <c:axId val="116515584"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000005E-2"/>
+          <c:max val="4.0000000000000018E-3"/>
+          <c:min val="2.0000000000000009E-3"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79153792"/>
+        <c:crossAx val="114135040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -518,7 +507,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$37:$D$44</c:f>
+              <c:f>Tabelle1!$E$34:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -551,7 +540,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$37:$E$44</c:f>
+              <c:f>Tabelle1!$F$34:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -583,11 +572,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82669952"/>
-        <c:axId val="82671488"/>
+        <c:axId val="111139840"/>
+        <c:axId val="111158016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82669952"/>
+        <c:axId val="111139840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -595,12 +584,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82671488"/>
+        <c:crossAx val="111158016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82671488"/>
+        <c:axId val="111158016"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -609,13 +598,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82669952"/>
+        <c:crossAx val="111139840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -640,7 +630,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$37:$C$43</c:f>
+              <c:f>Tabelle1!$D$34:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -670,7 +660,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$37:$E$43</c:f>
+              <c:f>Tabelle1!$F$34:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -707,7 +697,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$54:$A$55</c:f>
+              <c:f>Tabelle1!$A$51:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -722,7 +712,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$54:$B$55</c:f>
+              <c:f>Tabelle1!$B$51:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -744,7 +734,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$51:$A$52</c:f>
+              <c:f>Tabelle1!$A$48:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -759,7 +749,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$51:$B$52</c:f>
+              <c:f>Tabelle1!$B$48:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -773,11 +763,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82696832"/>
-        <c:axId val="82702720"/>
+        <c:axId val="111277568"/>
+        <c:axId val="111279104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82696832"/>
+        <c:axId val="111277568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -785,12 +775,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82702720"/>
+        <c:crossAx val="111279104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82702720"/>
+        <c:axId val="111279104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -799,13 +789,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82696832"/>
+        <c:crossAx val="111277568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -830,7 +821,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$37:$B$44</c:f>
+              <c:f>Tabelle1!$B$34:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -863,7 +854,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$36:$E$44</c:f>
+              <c:f>Tabelle1!$F$33:$F$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -906,7 +897,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$60:$A$61</c:f>
+              <c:f>Tabelle1!$A$57:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -921,7 +912,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$60:$B$61</c:f>
+              <c:f>Tabelle1!$B$57:$B$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -943,7 +934,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$57:$A$58</c:f>
+              <c:f>Tabelle1!$A$54:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -958,7 +949,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$57:$B$58</c:f>
+              <c:f>Tabelle1!$B$54:$B$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -972,11 +963,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82986112"/>
-        <c:axId val="82987648"/>
+        <c:axId val="112005120"/>
+        <c:axId val="112006656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82986112"/>
+        <c:axId val="112005120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -984,12 +975,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82987648"/>
+        <c:crossAx val="112006656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82987648"/>
+        <c:axId val="112006656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -998,13 +989,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82986112"/>
+        <c:crossAx val="112005120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1036,6 +1028,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1045,30 +1038,27 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>displ</c:v>
+            <c:v>penalty</c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$D$83:$D$89</c:f>
+              <c:f>Tabelle1!$E$82:$E$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.57759000000000005</c:v>
+                  <c:v>0.13283</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25484000000000001</c:v>
+                  <c:v>6.9154999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13283</c:v>
+                  <c:v>3.4962E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9154999999999994E-2</c:v>
+                  <c:v>2.8032000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4962E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2.0074000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1076,27 +1066,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$I$83:$I$89</c:f>
+              <c:f>Tabelle1!$J$82:$J$86</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.8438999999999999E-2</c:v>
+                  <c:v>5.0413103652040001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4438999999999999E-2</c:v>
+                  <c:v>1.375725482147E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8766999999999995E-3</c:v>
+                  <c:v>3.4275789658118301E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5926E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.1562000000000004E-4</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>4.6143000000000002E-5</c:v>
+                  <c:v>2.1759250701097E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1107,7 +1091,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$A$78</c:f>
+              <c:f>Tabelle1!$A$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1118,7 +1102,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$78:$B$79</c:f>
+              <c:f>Tabelle1!$B$75:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1133,7 +1117,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$78:$C$79</c:f>
+              <c:f>Tabelle1!$D$75:$D$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1152,7 +1136,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$D$78</c:f>
+              <c:f>Tabelle1!$E$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1163,7 +1147,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$78:$E$79</c:f>
+              <c:f>Tabelle1!$F$75:$F$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1178,7 +1162,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$F$78:$F$79</c:f>
+              <c:f>Tabelle1!$G$75:$G$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1192,11 +1176,66 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="83017088"/>
-        <c:axId val="83035648"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Nitsche</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$92:$G$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.13283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9154999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4962E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8032000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0074000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$92:$H$96</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.5860179023050002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.12546939535498E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.51133873463743E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9647193634961206E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6910848047843401E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="112020480"/>
+        <c:axId val="112030848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83017088"/>
+        <c:axId val="112020480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1218,15 +1257,16 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83035648"/>
+        <c:crossAx val="112030848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83035648"/>
+        <c:axId val="112030848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1249,10 +1289,394 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
+        <c:numFmt formatCode="0.0000000000" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112020480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>left corner</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.35355678121906381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1213406873143827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8890833430560412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4244561585863833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.495694778650739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.637704401615167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.567485009616476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$8:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1763499981239999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.346291541446E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4185993690769999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4462531501369999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.45706513209E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4615998910010001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>right corner</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$C$8:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.35355678121906381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1213406873143827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8890833430560412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4244561585863833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.495694778650739</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.637704401615167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.567485009616476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$I$8:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0708899145860001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2813583316639999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.383185531612E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4280439353300001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4479155957420002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4570369149419999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="112101248"/>
+        <c:axId val="112102784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="112101248"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83017088"/>
+        <c:crossAx val="112102784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="112102784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.0000000000000018E-3"/>
+          <c:min val="1.5000000000000005E-3"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112101248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle2!$B$17:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle2!$C$17:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.32461390038322402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32204414611769899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.318869949726307</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29490325391844102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26811383353516499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.130910402382589</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4491047530739998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7671531297343001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0413103652050002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.041310365203E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0413103652050002E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0413103652040001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0413103652050002E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.041310365203E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0413100000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0413103652050002E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.041310365203E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.041310365203E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0413103652040001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.041310365202E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="112233472"/>
+        <c:axId val="112235264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="112233472"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112235264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="112235264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112233472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1264,7 +1688,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1274,16 +1698,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1304,15 +1728,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1334,15 +1758,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1364,15 +1788,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1395,15 +1819,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1417,6 +1841,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1710,34 +2199,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="C74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1745,7 +2235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +2243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1761,25 +2251,28 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>11</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1787,30 +2280,34 @@
         <v>2.8283999999999998</v>
       </c>
       <c r="C8">
+        <f>1/B8</f>
+        <v>0.35355678121906381</v>
+      </c>
+      <c r="D8">
         <v>8</v>
-      </c>
-      <c r="D8">
-        <v>-2E-3</v>
       </c>
       <c r="E8">
         <v>-2E-3</v>
       </c>
-      <c r="G8">
-        <f>D8*(-1)</f>
+      <c r="F8">
+        <v>-2E-3</v>
+      </c>
+      <c r="H8">
+        <f>E8*(-1)</f>
         <v>2E-3</v>
       </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H13" si="0">E8*(-1)</f>
+      <c r="I8">
+        <f t="shared" ref="I8:I13" si="0">F8*(-1)</f>
         <v>2E-3</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1818,32 +2315,36 @@
         <v>0.47139999999999999</v>
       </c>
       <c r="C9">
+        <f t="shared" ref="C9:C14" si="1">1/B9</f>
+        <v>2.1213406873143827</v>
+      </c>
+      <c r="D9">
         <v>98</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-3.1763499981239999E-3</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-3.0708899145860001E-3</v>
       </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G13" si="1">D9*(-1)</f>
+      <c r="H9">
+        <f t="shared" ref="H9:H13" si="2">E9*(-1)</f>
         <v>3.1763499981239999E-3</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>3.0708899145860001E-3</v>
       </c>
-      <c r="J9">
-        <f>G9-G8</f>
-        <v>1.1763499981239998E-3</v>
-      </c>
       <c r="K9">
         <f>H9-H8</f>
+        <v>1.1763499981239998E-3</v>
+      </c>
+      <c r="L9">
+        <f>I9-I8</f>
         <v>1.070889914586E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1851,32 +2352,36 @@
         <v>0.25713000000000003</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>3.8890833430560412</v>
+      </c>
+      <c r="D10">
         <v>288</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-3.346291541446E-3</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-3.2813583316639999E-3</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
+      <c r="H10">
+        <f t="shared" si="2"/>
         <v>3.346291541446E-3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>3.2813583316639999E-3</v>
       </c>
-      <c r="J10">
-        <f t="shared" ref="J10:J17" si="2">G10-G9</f>
+      <c r="K10">
+        <f t="shared" ref="K10:K13" si="3">H10-H9</f>
         <v>1.6994154332200008E-4</v>
       </c>
-      <c r="K10">
-        <f t="shared" ref="K10:K17" si="3">H10-H9</f>
+      <c r="L10">
+        <f t="shared" ref="L10:L13" si="4">I10-I9</f>
         <v>2.1046841707799985E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1884,32 +2389,36 @@
         <v>0.13469</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>7.4244561585863833</v>
+      </c>
+      <c r="D11">
         <v>968</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-3.4185993690769999E-3</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-3.383185531612E-3</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
+      <c r="H11">
+        <f t="shared" si="2"/>
         <v>3.4185993690769999E-3</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>3.383185531612E-3</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>7.2307827630999945E-5</v>
-      </c>
       <c r="K11">
         <f t="shared" si="3"/>
+        <v>7.2307827630999945E-5</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
         <v>1.0182719994800008E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1917,32 +2426,36 @@
         <v>6.8986000000000006E-2</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>14.495694778650739</v>
+      </c>
+      <c r="D12">
         <v>3528</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-3.4462531501369999E-3</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-3.4280439353300001E-3</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
+      <c r="H12">
+        <f t="shared" si="2"/>
         <v>3.4462531501369999E-3</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>3.4280439353300001E-3</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>2.7653781059999976E-5</v>
-      </c>
       <c r="K12">
         <f t="shared" si="3"/>
+        <v>2.7653781059999976E-5</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
         <v>4.4858403718000053E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1950,392 +2463,317 @@
         <v>3.4918999999999999E-2</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
+        <v>28.637704401615167</v>
+      </c>
+      <c r="D13">
         <v>13448</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-3.45706513209E-3</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-3.4479155957420002E-3</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
+      <c r="H13">
+        <f t="shared" si="2"/>
         <v>3.45706513209E-3</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>3.4479155957420002E-3</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>1.0811981953000142E-5</v>
-      </c>
       <c r="K13">
         <f t="shared" si="3"/>
+        <v>1.0811981953000142E-5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
         <v>1.9871660412000124E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B14">
-        <v>2.0060000000000001E-2</v>
+        <v>1.7677999999999999E-2</v>
       </c>
       <c r="C14">
-        <v>40328</v>
+        <f t="shared" si="1"/>
+        <v>56.567485009616476</v>
       </c>
       <c r="D14">
-        <v>-3.4609893861069999E-3</v>
+        <v>51842</v>
       </c>
       <c r="E14">
-        <v>-3.4557708194580001E-3</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ref="G14" si="4">D14*(-1)</f>
-        <v>3.4609893861069999E-3</v>
+        <v>-3.4615998910010001E-3</v>
+      </c>
+      <c r="F14">
+        <v>-3.4570369149419999E-3</v>
       </c>
       <c r="H14">
         <f t="shared" ref="H14" si="5">E14*(-1)</f>
-        <v>3.4557708194580001E-3</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>3.9242540169999104E-6</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>7.8552237159999067E-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+        <v>3.4615998910010001E-3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ref="I14" si="6">F14*(-1)</f>
+        <v>3.4570369149419999E-3</v>
+      </c>
+      <c r="K14" t="e">
+        <f>H14-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L14" t="e">
+        <f>I14-#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>2.8283999999999998</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>0.43747999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0.94281000000000004</v>
+      </c>
+      <c r="E35">
+        <v>32</v>
+      </c>
+      <c r="F35">
+        <v>0.20746000000000001</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>0.47139999999999999</v>
+      </c>
+      <c r="E36">
+        <v>98</v>
+      </c>
+      <c r="F36" s="4">
+        <v>8.0954999999999999E-2</v>
+      </c>
+      <c r="K36">
+        <v>10000</v>
+      </c>
+      <c r="L36">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>0.25713000000000003</v>
+      </c>
+      <c r="E37">
+        <v>288</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2.8693E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>0.13469</v>
+      </c>
+      <c r="E38">
+        <v>968</v>
+      </c>
+      <c r="F38" s="4">
+        <v>8.5301999999999999E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>41</v>
+      </c>
+      <c r="D39">
+        <v>6.8986000000000006E-2</v>
+      </c>
+      <c r="E39">
+        <v>3528</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2.2391999999999998E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>81</v>
+      </c>
+      <c r="D40">
+        <v>3.4918999999999999E-2</v>
+      </c>
+      <c r="E40">
+        <v>13448</v>
+      </c>
+      <c r="F40" s="4">
+        <v>4.7087000000000002E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>141</v>
+      </c>
+      <c r="D41">
+        <v>2.0060000000000001E-2</v>
+      </c>
+      <c r="E41">
+        <v>40328</v>
+      </c>
+      <c r="F41" s="4">
+        <v>5.0374999999999998E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B42">
+        <v>151</v>
+      </c>
+      <c r="D42">
         <v>1.8731000000000001E-2</v>
       </c>
-      <c r="C15">
+      <c r="E42">
         <v>46208</v>
       </c>
-      <c r="D15">
-        <v>-3.4613165556600001E-3</v>
-      </c>
-      <c r="E15">
-        <v>-3.4564476636830001E-3</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ref="G15" si="6">D15*(-1)</f>
-        <v>3.4613165556600001E-3</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ref="H15" si="7">E15*(-1)</f>
-        <v>3.4564476636830001E-3</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>3.2716955300016518E-7</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>6.768442250000388E-7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+      <c r="F42" s="4">
+        <v>2.5375E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B43">
+        <v>156</v>
+      </c>
+      <c r="D43">
         <v>1.8131000000000001E-2</v>
       </c>
-      <c r="C16">
+      <c r="E43">
         <v>49298</v>
       </c>
-      <c r="D16">
-        <v>-3.461463142153E-3</v>
-      </c>
-      <c r="E16">
-        <v>-3.4567521371659999E-3</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16" si="8">D16*(-1)</f>
-        <v>3.461463142153E-3</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16" si="9">E16*(-1)</f>
-        <v>3.4567521371659999E-3</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>1.4658649299991236E-7</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>3.0447348299978555E-7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+      <c r="F43" s="4">
+        <v>1.5970000000000001E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B44">
+        <v>160</v>
+      </c>
+      <c r="D44">
         <v>1.7677999999999999E-2</v>
       </c>
-      <c r="C17">
+      <c r="E44">
         <v>51842</v>
       </c>
-      <c r="D17">
-        <v>-3.4615732841869998E-3</v>
-      </c>
-      <c r="E17">
-        <v>-3.4569814394040002E-3</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ref="G17" si="10">D17*(-1)</f>
-        <v>3.4615732841869998E-3</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ref="H17" si="11">E17*(-1)</f>
-        <v>3.4569814394040002E-3</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>1.1014203399979314E-7</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>2.2930223800027988E-7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37">
+      <c r="F44" s="4">
+        <v>1.3325E-16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
         <v>1</v>
       </c>
-      <c r="C37">
-        <v>2.8283999999999998</v>
-      </c>
-      <c r="D37">
-        <v>8</v>
-      </c>
-      <c r="E37">
-        <v>0.43747999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>0.94281000000000004</v>
-      </c>
-      <c r="D38">
-        <v>32</v>
-      </c>
-      <c r="E38">
-        <v>0.20746000000000001</v>
-      </c>
-      <c r="J38">
-        <v>10</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>0.47139999999999999</v>
-      </c>
-      <c r="D39">
-        <v>98</v>
-      </c>
-      <c r="E39" s="4">
-        <v>8.0954999999999999E-2</v>
-      </c>
-      <c r="J39">
-        <v>10000</v>
-      </c>
-      <c r="K39">
-        <v>9.9999999999999995E-7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40">
-        <v>11</v>
-      </c>
-      <c r="C40">
-        <v>0.25713000000000003</v>
-      </c>
-      <c r="D40">
-        <v>288</v>
-      </c>
-      <c r="E40" s="4">
-        <v>2.8693E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41">
-        <v>21</v>
-      </c>
-      <c r="C41">
-        <v>0.13469</v>
-      </c>
-      <c r="D41">
-        <v>968</v>
-      </c>
-      <c r="E41" s="4">
-        <v>8.5301999999999999E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42">
-        <v>41</v>
-      </c>
-      <c r="C42">
-        <v>6.8986000000000006E-2</v>
-      </c>
-      <c r="D42">
-        <v>3528</v>
-      </c>
-      <c r="E42" s="4">
-        <v>2.2391999999999998E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43">
-        <v>81</v>
-      </c>
-      <c r="C43">
-        <v>3.4918999999999999E-2</v>
-      </c>
-      <c r="D43">
-        <v>13448</v>
-      </c>
-      <c r="E43" s="4">
-        <v>4.7087000000000002E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44">
-        <v>141</v>
-      </c>
-      <c r="C44">
-        <v>2.0060000000000001E-2</v>
-      </c>
-      <c r="D44">
-        <v>40328</v>
-      </c>
-      <c r="E44" s="4">
-        <v>5.0374999999999998E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45">
-        <v>151</v>
-      </c>
-      <c r="C45">
-        <v>1.8731000000000001E-2</v>
-      </c>
-      <c r="D45">
-        <v>46208</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2.5375E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46">
-        <v>156</v>
-      </c>
-      <c r="C46">
-        <v>1.8131000000000001E-2</v>
-      </c>
-      <c r="D46">
-        <v>49298</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1.5970000000000001E-5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47">
-        <v>160</v>
-      </c>
-      <c r="C47">
-        <v>1.7677999999999999E-2</v>
-      </c>
-      <c r="D47">
-        <v>51842</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1.3325E-16</v>
+      <c r="B48">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>0.01</v>
+      </c>
+      <c r="B49">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2351,7 +2789,7 @@
         <v>0.01</v>
       </c>
       <c r="B52">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2359,15 +2797,15 @@
         <v>1</v>
       </c>
       <c r="B54">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="B55">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2383,306 +2821,317 @@
         <v>100</v>
       </c>
       <c r="B58">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="B76">
+        <v>0.01</v>
+      </c>
+      <c r="D76">
+        <v>0.01</v>
+      </c>
+      <c r="F76">
+        <v>0.01</v>
+      </c>
+      <c r="G76">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>100</v>
-      </c>
-      <c r="B61">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="3">
+        <f>E82^2/E81^2*D82</f>
+        <v>2644.3748529887985</v>
+      </c>
+      <c r="E81">
+        <v>0.57759000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>41</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="B82" s="3">
+        <v>50000</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E82">
+        <v>0.13283</v>
+      </c>
+      <c r="F82">
+        <v>1232</v>
+      </c>
+      <c r="G82">
+        <v>1320</v>
+      </c>
+      <c r="H82">
         <v>42</v>
       </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="B79">
-        <v>0.01</v>
-      </c>
-      <c r="C79">
-        <v>0.01</v>
-      </c>
-      <c r="E79">
-        <v>0.01</v>
-      </c>
-      <c r="F79">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" t="s">
+      <c r="I82">
+        <v>25</v>
+      </c>
+      <c r="J82" s="5">
+        <v>5.0413103652040001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" t="s">
-        <v>6</v>
-      </c>
-      <c r="B82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" s="3">
+        <f>E82^2/E83^2*B82</f>
+        <v>184465.51059535259</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3">
+        <f>E82^2/E83^2*D82</f>
+        <v>184465.51059535259</v>
+      </c>
+      <c r="E83">
+        <v>6.9154999999999994E-2</v>
+      </c>
+      <c r="F83">
+        <v>4368</v>
+      </c>
+      <c r="G83">
+        <v>4536</v>
+      </c>
+      <c r="H83">
+        <v>82</v>
+      </c>
+      <c r="I83">
+        <v>25</v>
+      </c>
+      <c r="J83" s="5">
+        <v>1.375725482147E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="3">
+        <f>E83^2/E84^2*B83</f>
+        <v>721721.7818559052</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3">
+        <f>E83^2/E84^2*D83</f>
+        <v>721721.7818559052</v>
+      </c>
+      <c r="E84">
+        <v>3.4962E-2</v>
+      </c>
+      <c r="F84">
+        <v>16728</v>
+      </c>
+      <c r="G84">
+        <v>17056</v>
+      </c>
+      <c r="H84">
+        <v>162</v>
+      </c>
+      <c r="I84">
+        <v>25</v>
+      </c>
+      <c r="J84" s="5">
+        <v>3.4275789658118301E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" s="3">
+        <f>D85</f>
+        <v>1122675.3331421788</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3">
+        <f>E84^2/E85^2*D84</f>
+        <v>1122675.3331421788</v>
+      </c>
+      <c r="E85">
+        <v>2.8032000000000001E-2</v>
+      </c>
+      <c r="F85">
+        <v>25908</v>
+      </c>
+      <c r="G85">
+        <v>26316</v>
+      </c>
+      <c r="H85">
+        <v>202</v>
+      </c>
+      <c r="I85">
+        <v>25</v>
+      </c>
+      <c r="J85" s="5">
+        <v>2.1759250701097E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="3">
+        <f>E84^2/E86^2*B84</f>
+        <v>2189245.7233730862</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3">
+        <f>E84^2/E86^2*D84</f>
+        <v>2189245.7233730862</v>
+      </c>
+      <c r="E86">
+        <v>2.0074000000000002E-2</v>
+      </c>
+      <c r="F86">
+        <v>50268</v>
+      </c>
+      <c r="G86">
+        <v>50836</v>
+      </c>
+      <c r="H86">
+        <v>282</v>
+      </c>
+      <c r="I86">
+        <v>25</v>
+      </c>
+      <c r="J86" s="5"/>
+      <c r="K86" s="3"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="G90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="G91" t="s">
+        <v>68</v>
+      </c>
+      <c r="H91" t="s">
         <v>57</v>
       </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" t="s">
-        <v>30</v>
-      </c>
-      <c r="F82" t="s">
-        <v>31</v>
-      </c>
-      <c r="G82" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" t="s">
-        <v>29</v>
-      </c>
-      <c r="I82" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="3"/>
-      <c r="D83">
-        <v>0.57759000000000005</v>
-      </c>
-      <c r="E83">
-        <v>84</v>
-      </c>
-      <c r="F83">
-        <v>108</v>
-      </c>
-      <c r="G83">
-        <v>10</v>
-      </c>
-      <c r="H83">
-        <v>100</v>
-      </c>
-      <c r="I83">
-        <v>9.8438999999999999E-2</v>
-      </c>
-      <c r="J83">
-        <v>0.11448999999999999</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" t="s">
-        <v>43</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84">
-        <v>0.25484000000000001</v>
-      </c>
-      <c r="E84">
-        <v>360</v>
-      </c>
-      <c r="F84">
-        <v>408</v>
-      </c>
-      <c r="G84">
-        <v>22</v>
-      </c>
-      <c r="H84">
-        <v>100</v>
-      </c>
-      <c r="I84">
-        <v>2.4438999999999999E-2</v>
-      </c>
-      <c r="J84">
-        <v>2.8742E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" t="s">
-        <v>28</v>
-      </c>
-      <c r="B85" s="3">
-        <v>50000</v>
-      </c>
-      <c r="C85" s="3">
-        <v>2000000</v>
-      </c>
-      <c r="D85">
+    </row>
+    <row r="92" spans="1:11">
+      <c r="G92">
         <v>0.13283</v>
       </c>
-      <c r="E85">
-        <v>1232</v>
-      </c>
-      <c r="F85">
-        <v>1320</v>
-      </c>
-      <c r="G85">
-        <v>42</v>
-      </c>
-      <c r="H85">
-        <v>100</v>
-      </c>
-      <c r="I85">
-        <v>8.8766999999999995E-3</v>
-      </c>
-      <c r="J85">
-        <v>9.0445999999999999E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="3">
-        <f>D85^2/D86^2*B85</f>
-        <v>184465.51059535259</v>
-      </c>
-      <c r="C86" s="3">
-        <f>D85^2/D86^2*C85</f>
-        <v>7378620.4238141039</v>
-      </c>
-      <c r="D86">
+      <c r="H92" s="5">
+        <v>2.5860179023050002E-3</v>
+      </c>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="G93">
         <v>6.9154999999999994E-2</v>
       </c>
-      <c r="E86">
-        <v>4368</v>
-      </c>
-      <c r="F86">
-        <v>4536</v>
-      </c>
-      <c r="G86">
-        <v>82</v>
-      </c>
-      <c r="H86">
-        <v>100</v>
-      </c>
-      <c r="I86">
-        <v>2.5926E-3</v>
-      </c>
-      <c r="J86">
-        <v>2.2149000000000001E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" t="s">
-        <v>35</v>
-      </c>
-      <c r="B87" s="3">
-        <f>D86^2/D87^2*B86</f>
-        <v>721721.7818559052</v>
-      </c>
-      <c r="C87" s="3">
-        <f>D86^2/D87^2*C86</f>
-        <v>28868871.27423621</v>
-      </c>
-      <c r="D87">
+      <c r="H93" s="5">
+        <v>7.12546939535498E-4</v>
+      </c>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="G94">
         <v>3.4962E-2</v>
       </c>
-      <c r="E87">
-        <v>16728</v>
-      </c>
-      <c r="F87">
-        <v>17056</v>
-      </c>
-      <c r="G87">
-        <v>162</v>
-      </c>
-      <c r="H87">
-        <v>100</v>
-      </c>
-      <c r="I87">
-        <v>7.1562000000000004E-4</v>
-      </c>
-      <c r="J87">
-        <v>4.6189000000000001E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" t="s">
-        <v>45</v>
-      </c>
-      <c r="B88" s="3" t="e">
-        <f>D87^2/D88^2*B87</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C88" s="3" t="e">
-        <f>D87^2/D88^2*C87</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" t="s">
-        <v>36</v>
-      </c>
-      <c r="B89" s="3" t="e">
-        <f>D88^2/D89^2*B88</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C89" s="3" t="e">
-        <f>D88^2/D89^2*C88</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D89">
+      <c r="H94" s="5">
+        <v>1.51133873463743E-4</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="G95">
+        <v>2.8032000000000001E-2</v>
+      </c>
+      <c r="H95" s="5">
+        <v>7.9647193634961206E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="G96">
         <v>2.0074000000000002E-2</v>
       </c>
-      <c r="E89">
-        <v>50268</v>
-      </c>
-      <c r="F89">
-        <v>50836</v>
-      </c>
-      <c r="G89">
-        <v>282</v>
-      </c>
-      <c r="H89">
-        <v>100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>4.6143000000000002E-5</v>
-      </c>
-      <c r="J89" s="3">
-        <v>4.6143000000000002E-5</v>
-      </c>
+      <c r="H96" s="5">
+        <v>1.6910848047843401E-5</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2693,74 +3142,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
       <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>56</v>
-      </c>
-      <c r="H5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>3.4185993690769999E-3</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>3.4496132277000002E-3</v>
@@ -2778,16 +3226,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>3.436810649768E-3</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <f>B8-B6</f>
@@ -2796,42 +3244,297 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
         <v>62</v>
       </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.32526061699761399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C17">
+        <v>0.32461390038322402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <v>0.32204414611769899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0.318869949726307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>0.29490325391844102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0.26811383353516499</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B22" s="3">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>0.130910402382589</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B23" s="3">
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>7.4491047530739998E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B24" s="3">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>4.7671531297343001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B25" s="3">
+        <v>175</v>
+      </c>
+      <c r="C25">
+        <v>5.0413103652050002E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B26" s="3">
+        <v>250</v>
+      </c>
+      <c r="C26">
+        <v>5.041310365203E-3</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>60</v>
+      <c r="A27" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B27" s="3">
+        <v>500</v>
+      </c>
+      <c r="C27">
+        <v>5.0413103652050002E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
+      <c r="A28" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C28">
+        <v>5.0413103652040001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C29">
+        <v>5.0413103652050002E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>34</v>
+      <c r="A30" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B30" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C30">
+        <v>5.041310365203E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>35</v>
-      </c>
+      <c r="A31" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B31" s="3">
+        <v>50000</v>
+      </c>
+      <c r="C31">
+        <v>5.0413100000000002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B32" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C32">
+        <v>5.0413103652050002E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B33" s="3">
+        <v>500000</v>
+      </c>
+      <c r="C33">
+        <v>5.041310365203E-3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="C34">
+        <v>5.041310365203E-3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="C35">
+        <v>5.0413103652040001E-3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="C36">
+        <v>5.041310365202E-3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A16:D31">
+    <sortCondition ref="B16:B31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>